--- a/Data/Offense_2022.csv.xlsx
+++ b/Data/Offense_2022.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9891E4-A7AD-480C-B00D-C64407595D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54CF23-9A93-B84D-9819-96528EC1FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52680" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{CA1AD882-1646-4F9D-A2E6-E2E7BF1A3012}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CA1AD882-1646-4F9D-A2E6-E2E7BF1A3012}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
-    <t>% of Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% of Drives resulting in Turnover</t>
-  </si>
-  <si>
     <t>Expected points contributed by all Offense</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -590,34 +590,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958ED60-A791-4EAA-B5FA-FB2BD2844AA9}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="17" max="18" width="19.5703125" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" customWidth="1"/>
+    <col min="17" max="18" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="22.5" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" customWidth="1"/>
+    <col min="22" max="22" width="18.83203125" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.5" customWidth="1"/>
     <col min="25" max="25" width="26" customWidth="1"/>
-    <col min="26" max="26" width="43.28515625" customWidth="1"/>
-    <col min="27" max="27" width="35.5703125" customWidth="1"/>
-    <col min="28" max="28" width="52.140625" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" customWidth="1"/>
+    <col min="26" max="26" width="43.33203125" customWidth="1"/>
+    <col min="27" max="27" width="35.5" customWidth="1"/>
+    <col min="28" max="28" width="52.1640625" customWidth="1"/>
+    <col min="29" max="29" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -694,16 +694,16 @@
         <v>59</v>
       </c>
       <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -875,7 +875,7 @@
         <v>226.96</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -961,7 +961,7 @@
         <v>112.34</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>157.46</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>162.04</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>161.29</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>89.64</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>147.62</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>103.21</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>79.06</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>74.09</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>75.75</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>73.69</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>78.05</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>-25.81</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>58.03</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>48.17</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>-36.270000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>-24.27</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>42.17</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>-7.51</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>-27.22</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>-47.59</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>-120.59</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>-110.46</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>-41.62</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -3537,7 +3537,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>34</v>

--- a/Data/Offense_2022.csv.xlsx
+++ b/Data/Offense_2022.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54CF23-9A93-B84D-9819-96528EC1FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9891E4-A7AD-480C-B00D-C64407595D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CA1AD882-1646-4F9D-A2E6-E2E7BF1A3012}"/>
+    <workbookView xWindow="-52680" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{CA1AD882-1646-4F9D-A2E6-E2E7BF1A3012}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
+    <t>% of Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% of Drives resulting in Turnover</t>
+  </si>
+  <si>
     <t>Expected points contributed by all Offense</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -590,34 +590,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958ED60-A791-4EAA-B5FA-FB2BD2844AA9}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" customWidth="1"/>
-    <col min="17" max="18" width="19.5" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="20" width="22.5" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" customWidth="1"/>
-    <col min="22" max="22" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="17" max="18" width="19.5703125" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="22.5" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
     <col min="25" max="25" width="26" customWidth="1"/>
-    <col min="26" max="26" width="43.33203125" customWidth="1"/>
-    <col min="27" max="27" width="35.5" customWidth="1"/>
-    <col min="28" max="28" width="52.1640625" customWidth="1"/>
-    <col min="29" max="29" width="23.1640625" customWidth="1"/>
+    <col min="26" max="26" width="43.28515625" customWidth="1"/>
+    <col min="27" max="27" width="35.5703125" customWidth="1"/>
+    <col min="28" max="28" width="52.140625" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -694,16 +694,16 @@
         <v>59</v>
       </c>
       <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -875,7 +875,7 @@
         <v>226.96</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -961,7 +961,7 @@
         <v>112.34</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>157.46</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>162.04</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>161.29</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>89.64</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>147.62</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>103.21</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>79.06</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>74.09</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>75.75</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>73.69</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>78.05</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>-25.81</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>58.03</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>48.17</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>-36.270000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>-24.27</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>42.17</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>-7.51</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>-27.22</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>-47.59</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>-120.59</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>-110.46</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>-41.62</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -3537,7 +3537,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>34</v>
